--- a/TP2/EJ1/Ej1_Bodes/NoInversor_G0.88_OK.xlsx
+++ b/TP2/EJ1/Ej1_Bodes/NoInversor_G0.88_OK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DC4C46-6412-4F95-A478-3B305E519B66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DC0E7B-6542-4F55-B630-51147AEC26F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Gain</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Zinp</t>
+  </si>
+  <si>
+    <t>Vin</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -95,11 +98,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -109,6 +149,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -394,7 +446,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -448,14 +500,15 @@
         <v>6</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -466,7 +519,7 @@
         <v>0.88</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>100000</v>
       </c>
       <c r="D3" s="1">
@@ -491,22 +544,23 @@
         <v>-8</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="4">
-        <v>0.187</v>
-      </c>
       <c r="M3" s="1">
-        <f>(H3*12000)/(H3-L3)</f>
-        <v>31858.407079646022</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>15.9</v>
+      </c>
+      <c r="N3" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="O3" s="5">
+        <f>(M3*12000)/(M3-N3)</f>
+        <v>54514.285714285717</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.88</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>300000</v>
       </c>
       <c r="D4" s="1">
@@ -531,22 +585,23 @@
         <v>-24</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="4">
-        <v>9.5000000000000001E-2</v>
-      </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M12" si="2">(H4*12000)/(H4-L4)</f>
-        <v>17560.9756097561</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+        <v>15.92</v>
+      </c>
+      <c r="N4" s="4">
+        <v>11.18</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O12" si="2">(M4*12000)/(M4-N4)</f>
+        <v>40303.797468354431</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.88</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>500000</v>
       </c>
       <c r="D5" s="1">
@@ -571,22 +626,23 @@
         <v>-55</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="4">
-        <v>0.06</v>
-      </c>
       <c r="M5" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="N5" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+        <v>30141.732283464567</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.88</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>700000</v>
       </c>
       <c r="D6" s="1">
@@ -611,22 +667,23 @@
         <v>-80</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="4">
-        <v>2.9000000000000001E-2</v>
-      </c>
       <c r="M6" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="N6" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" si="2"/>
-        <v>14035.087719298244</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+        <v>24413.265306122448</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.88</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>900000</v>
       </c>
       <c r="D7" s="1">
@@ -651,22 +708,23 @@
         <v>-119</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
       <c r="M7" s="1">
+        <v>16</v>
+      </c>
+      <c r="N7" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="2"/>
-        <v>13457.943925233645</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+        <v>21098.9010989011</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.88</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>950000</v>
       </c>
       <c r="D8" s="1">
@@ -691,22 +749,23 @@
         <v>-125</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="4">
-        <v>1.2E-2</v>
-      </c>
       <c r="M8" s="1">
+        <v>16</v>
+      </c>
+      <c r="N8" s="4">
+        <v>6.64</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="2"/>
-        <v>13333.333333333334</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>20512.820512820515</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.88</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>1000000</v>
       </c>
       <c r="D9" s="1">
@@ -731,22 +790,23 @@
         <v>-132</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="4">
-        <v>1.0999999999999999E-2</v>
-      </c>
       <c r="M9" s="1">
+        <v>16</v>
+      </c>
+      <c r="N9" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="2"/>
-        <v>13211.009174311926</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+        <v>20000</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.88</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>1100000</v>
       </c>
       <c r="D10" s="1">
@@ -771,22 +831,23 @@
         <v>-140</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="4">
-        <v>0.01</v>
-      </c>
       <c r="M10" s="1">
+        <v>16</v>
+      </c>
+      <c r="N10" s="4">
+        <v>5.97</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="2"/>
-        <v>13090.90909090909</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>19142.572283150545</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.88</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>1300000</v>
       </c>
       <c r="D11" s="1">
@@ -811,22 +872,23 @@
         <v>-160</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="4">
-        <v>9.4999999999999998E-3</v>
-      </c>
       <c r="M11" s="1">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="2"/>
-        <v>13031.674208144796</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+        <v>17860.465116279069</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.88</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
+      <c r="C12" s="8">
         <v>1500000</v>
       </c>
       <c r="D12" s="1">
@@ -851,15 +913,16 @@
         <v>-178</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="4">
-        <v>8.5000000000000006E-3</v>
-      </c>
       <c r="M12" s="1">
+        <v>16</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="O12" s="5">
         <f t="shared" si="2"/>
-        <v>12914.798206278028</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+        <v>16991.150442477876</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
